--- a/dataconfig/interface.xlsx
+++ b/dataconfig/interface.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -62,13 +62,13 @@
     <t>yes</t>
   </si>
   <si>
-    <t>Post</t>
+    <t>post</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
-    <t>User</t>
+    <t>user</t>
   </si>
   <si>
     <t>Imooc-002</t>
@@ -88,9 +88,6 @@
     </r>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>sz_title_list</t>
   </si>
   <si>
@@ -128,7 +125,7 @@
     <t>Imooc002 name</t>
   </si>
   <si>
-    <t>Order_ID</t>
+    <t>order_ID</t>
   </si>
 </sst>
 </file>
@@ -1589,24 +1586,24 @@
         <v>16</v>
       </c>
       <c r="F3" t="s" s="9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
       <c r="J3" t="s" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
     </row>
     <row r="4" ht="32.05" customHeight="1">
       <c r="A4" t="s" s="7">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" t="s" s="9">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="10"/>
@@ -1620,23 +1617,23 @@
     </row>
     <row r="5" ht="68.9" customHeight="1">
       <c r="A5" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s" s="8">
         <v>26</v>
       </c>
-      <c r="B5" t="s" s="8">
+      <c r="C5" t="s" s="9">
         <v>27</v>
-      </c>
-      <c r="C5" t="s" s="9">
-        <v>28</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" t="s" s="9">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" t="s" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>

--- a/dataconfig/interface.xlsx
+++ b/dataconfig/interface.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView windowWidth="21495" windowHeight="9930"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表 1" sheetId="1" r:id="rId4"/>
+    <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>ID</t>
   </si>
@@ -79,10 +81,11 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
       </rPr>
       <t>http://coding.imooc.com/api/cate</t>
     </r>
@@ -96,10 +99,11 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
       </rPr>
       <t>http://coding.imooc.com/api/szlist</t>
     </r>
@@ -113,10 +117,11 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
       </rPr>
       <t>http://order.imooc.com/service/index/lastlearn?jsonpcallback=jQuery111303486941534972976_1506565834654&amp;_=1506565834655</t>
     </r>
@@ -132,39 +137,186 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <charset val="134"/>
     </font>
     <font>
-      <u val="single"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,23 +326,209 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="12"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="13"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -340,91 +678,434 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00BDC0BF"/>
+      <rgbColor rgb="00A5A5A5"/>
+      <rgbColor rgb="003F3F3F"/>
+      <rgbColor rgb="00DBDBDB"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00AAAAAA"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -623,8 +1304,6 @@
           <a:prstDash val="solid"/>
           <a:round/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
@@ -644,8 +1323,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -674,8 +1352,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -700,8 +1377,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -726,8 +1402,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -752,8 +1427,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -778,8 +1452,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -804,8 +1477,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -830,8 +1502,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -856,8 +1527,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -882,8 +1552,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -896,9 +1565,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -912,8 +1587,6 @@
           <a:prstDash val="solid"/>
           <a:round/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
@@ -933,8 +1606,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -959,8 +1631,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -985,8 +1656,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1011,8 +1681,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1037,8 +1706,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1063,8 +1731,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1089,8 +1756,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1115,8 +1781,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1141,8 +1806,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1167,8 +1831,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1181,9 +1844,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1194,8 +1863,6 @@
           <a:noFill/>
           <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
@@ -1215,8 +1882,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1245,8 +1911,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1271,8 +1936,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1297,8 +1961,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1323,8 +1986,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1349,8 +2011,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1375,8 +2036,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1401,8 +2061,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1427,8 +2086,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1453,8 +2111,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1467,9 +2124,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
@@ -1478,131 +2141,124 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.3333333333333" defaultRowHeight="19.9" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1719" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.3516" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.3516" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.3516" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.3516" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.3516" style="1" customWidth="1"/>
-    <col min="13" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.352380952381" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1714285714286" style="1" customWidth="1"/>
+    <col min="3" max="4" width="24" style="1" customWidth="1"/>
+    <col min="5" max="256" width="16.352380952381" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" ht="31" customHeight="1" spans="1:12">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="2">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" ht="26.7" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" ht="26.7" customHeight="1" spans="1:12">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s" s="4">
+      <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s" s="5">
+      <c r="C2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s" s="5">
+      <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s" s="5">
+      <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s" s="5">
+      <c r="F2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" t="s" s="5">
+      <c r="J2" s="5" t="s">
         <v>18</v>
       </c>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" ht="32.25" customHeight="1">
-      <c r="A3" t="s" s="7">
+    <row r="3" ht="32.25" customHeight="1" spans="1:12">
+      <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s" s="8">
+      <c r="B3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s" s="9">
+      <c r="C3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D3" t="s" s="9">
+      <c r="D3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s" s="9">
+      <c r="E3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s" s="9">
+      <c r="F3" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
-      <c r="J3" t="s" s="9">
+      <c r="J3" s="9" t="s">
         <v>22</v>
       </c>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
     </row>
-    <row r="4" ht="32.05" customHeight="1">
-      <c r="A4" t="s" s="7">
+    <row r="4" ht="32.05" customHeight="1" spans="1:12">
+      <c r="A4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="11"/>
-      <c r="C4" t="s" s="9">
+      <c r="C4" s="9" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="9"/>
@@ -1615,31 +2271,31 @@
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
     </row>
-    <row r="5" ht="68.9" customHeight="1">
-      <c r="A5" t="s" s="7">
+    <row r="5" ht="68.9" customHeight="1" spans="1:12">
+      <c r="A5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s" s="8">
+      <c r="B5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s" s="9">
+      <c r="C5" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
-      <c r="G5" t="s" s="9">
+      <c r="G5" s="9" t="s">
         <v>28</v>
       </c>
       <c r="H5" s="10"/>
-      <c r="I5" t="s" s="9">
+      <c r="I5" s="9" t="s">
         <v>29</v>
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" ht="23.3" customHeight="1">
+    <row r="6" ht="23.3" customHeight="1" spans="1:12">
       <c r="A6" s="12"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -1651,10 +2307,10 @@
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
-      <c r="L6" s="14"/>
+      <c r="L6" s="15"/>
     </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="15"/>
+    <row r="7" ht="20.05" customHeight="1" spans="1:12">
+      <c r="A7" s="14"/>
       <c r="B7" s="11"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -1667,8 +2323,8 @@
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
     </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="15"/>
+    <row r="8" ht="20.05" customHeight="1" spans="1:12">
+      <c r="A8" s="14"/>
       <c r="B8" s="11"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -1681,8 +2337,8 @@
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
     </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="15"/>
+    <row r="9" ht="20.05" customHeight="1" spans="1:12">
+      <c r="A9" s="14"/>
       <c r="B9" s="11"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -1695,8 +2351,8 @@
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
     </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="15"/>
+    <row r="10" ht="20.05" customHeight="1" spans="1:12">
+      <c r="A10" s="14"/>
       <c r="B10" s="11"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -1709,8 +2365,8 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
     </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="15"/>
+    <row r="11" ht="20.05" customHeight="1" spans="1:12">
+      <c r="A11" s="14"/>
       <c r="B11" s="11"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -1723,8 +2379,8 @@
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
     </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="15"/>
+    <row r="12" ht="20.05" customHeight="1" spans="1:12">
+      <c r="A12" s="14"/>
       <c r="B12" s="11"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -1737,8 +2393,8 @@
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
     </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="15"/>
+    <row r="13" ht="20.05" customHeight="1" spans="1:12">
+      <c r="A13" s="14"/>
       <c r="B13" s="11"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -1751,8 +2407,8 @@
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
     </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="15"/>
+    <row r="14" ht="20.05" customHeight="1" spans="1:12">
+      <c r="A14" s="14"/>
       <c r="B14" s="11"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -1765,8 +2421,8 @@
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="15"/>
+    <row r="15" ht="20.05" customHeight="1" spans="1:12">
+      <c r="A15" s="14"/>
       <c r="B15" s="11"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -1779,8 +2435,8 @@
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
     </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="15"/>
+    <row r="16" ht="20.05" customHeight="1" spans="1:12">
+      <c r="A16" s="14"/>
       <c r="B16" s="11"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -1793,8 +2449,8 @@
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
     </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="15"/>
+    <row r="17" ht="20.05" customHeight="1" spans="1:12">
+      <c r="A17" s="14"/>
       <c r="B17" s="11"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -1807,8 +2463,8 @@
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
     </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="15"/>
+    <row r="18" ht="20.05" customHeight="1" spans="1:12">
+      <c r="A18" s="14"/>
       <c r="B18" s="11"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -1821,8 +2477,8 @@
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
     </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="15"/>
+    <row r="19" ht="20.05" customHeight="1" spans="1:12">
+      <c r="A19" s="14"/>
       <c r="B19" s="11"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -1835,8 +2491,8 @@
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
     </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="15"/>
+    <row r="20" ht="20.05" customHeight="1" spans="1:12">
+      <c r="A20" s="14"/>
       <c r="B20" s="11"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -1849,8 +2505,8 @@
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
     </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="15"/>
+    <row r="21" ht="20.05" customHeight="1" spans="1:12">
+      <c r="A21" s="14"/>
       <c r="B21" s="11"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -1863,8 +2519,8 @@
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
     </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="15"/>
+    <row r="22" ht="20.05" customHeight="1" spans="1:12">
+      <c r="A22" s="14"/>
       <c r="B22" s="11"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -1877,8 +2533,8 @@
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
     </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="15"/>
+    <row r="23" ht="20.05" customHeight="1" spans="1:12">
+      <c r="A23" s="14"/>
       <c r="B23" s="11"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -1893,12 +2549,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" location="" tooltip="" display=""/>
-    <hyperlink ref="C4" r:id="rId2" location="" tooltip="" display=""/>
-    <hyperlink ref="C5" r:id="rId3" location="" tooltip="" display=""/>
+    <hyperlink ref="C3" r:id="rId1" display="http://coding.imooc.com/api/cate"/>
+    <hyperlink ref="C4" r:id="rId2" display="http://coding.imooc.com/api/szlist"/>
+    <hyperlink ref="C5" r:id="rId3" display="http://order.imooc.com/service/index/lastlearn?jsonpcallback=jQuery111303486941534972976_1506565834654&amp;_=1506565834655"/>
   </hyperlinks>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277777777777778" footer="0.277777777777778"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
